--- a/assets/The-Sheet.xlsx
+++ b/assets/The-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b44cf06eb83b68b2/Learn With Leon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b44cf06eb83b68b2/Learn With Leon/Projects/Personal Site/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="8_{EC66015F-6D50-4738-8A3C-3454F3AADA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E91D406D-6E1C-482D-ACCE-670A646033CC}"/>
+  <xr:revisionPtr revIDLastSave="518" documentId="8_{EC66015F-6D50-4738-8A3C-3454F3AADA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67054E4-5FB5-469A-BC9A-737A75ED89AC}"/>
   <bookViews>
-    <workbookView xWindow="-25545" yWindow="2460" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Networking" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>Event Info</t>
   </si>
@@ -170,13 +170,160 @@
     <t>Neighbor</t>
   </si>
   <si>
-    <t>Rich</t>
-  </si>
-  <si>
     <t>Wells Fargo / Tech Management</t>
   </si>
   <si>
     <t>Roo plays with Lola</t>
+  </si>
+  <si>
+    <t>EJ Nickelson</t>
+  </si>
+  <si>
+    <t>TIAA / Product Owner</t>
+  </si>
+  <si>
+    <t>Son runs sprints</t>
+  </si>
+  <si>
+    <t>703.498.7669</t>
+  </si>
+  <si>
+    <t>704.796.7003</t>
+  </si>
+  <si>
+    <t>Rich Bethea</t>
+  </si>
+  <si>
+    <t>John Sentilles</t>
+  </si>
+  <si>
+    <t>Our kids play together</t>
+  </si>
+  <si>
+    <t>205.936.1295</t>
+  </si>
+  <si>
+    <t>In neighborhood</t>
+  </si>
+  <si>
+    <t>Adam Ray</t>
+  </si>
+  <si>
+    <t>Computer Security</t>
+  </si>
+  <si>
+    <t>Poker / Guys Night</t>
+  </si>
+  <si>
+    <t>843.224.8902</t>
+  </si>
+  <si>
+    <t>Pixsys Tech/ Director of Tech</t>
+  </si>
+  <si>
+    <t>Not on LinkedIn</t>
+  </si>
+  <si>
+    <t>Hilton Grand Vacations</t>
+  </si>
+  <si>
+    <t>https://careers.hgv.com/job/15210151/-remote-developer-systems-orlando-fl/</t>
+  </si>
+  <si>
+    <t>Developer Systems</t>
+  </si>
+  <si>
+    <t>Corporate Website</t>
+  </si>
+  <si>
+    <t>Byron Coleman</t>
+  </si>
+  <si>
+    <t>Area Sales Manager</t>
+  </si>
+  <si>
+    <t>byron.coleman@hgv.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Met Byron at the Job Fair on 5/26</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Thrivent</t>
+  </si>
+  <si>
+    <t>https://thrivent.wd5.myworkdayjobs.com/en-US/external/job/MN---Minneapolis/R-Python-Developer_REQ-29704</t>
+  </si>
+  <si>
+    <t>R/Python Developer</t>
+  </si>
+  <si>
+    <t>Jason Bingham</t>
+  </si>
+  <si>
+    <t>Market Director</t>
+  </si>
+  <si>
+    <t>jason.bingham@thrivent.com</t>
+  </si>
+  <si>
+    <t>https://thrivent.wd5.myworkdayjobs.com/en-US/external/job/MN---Minneapolis/Cloud-Engineer_REQ-28793</t>
+  </si>
+  <si>
+    <t>https://thrivent.wd5.myworkdayjobs.com/en-US/external/job/WI---Appleton/Software-Developer---Remote_REQ-29069</t>
+  </si>
+  <si>
+    <t>https://thrivent.wd5.myworkdayjobs.com/en-US/external/job/Remote-Minnesota-Minneapolis-Metro/Data-Engineer--Remote-_REQ-29021</t>
+  </si>
+  <si>
+    <t>Cloud Engineer</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Spectrum</t>
+  </si>
+  <si>
+    <t>https://jobs.spectrum.com/job/charlotte/software-developer/4673/28411253824</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>https://jobs.spectrum.com/job/charlotte/software-engineer/4673/29167123040</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>https://jobs.spectrum.com/job/charlotte/associate-devops-engineer/4673/28971550704</t>
+  </si>
+  <si>
+    <t>Associate DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Access One Med Card</t>
+  </si>
+  <si>
+    <t>https://www.paycomonline.net/v4/ats/web.php/jobs/ViewJobDetails?job=69809&amp;clientkey=A6B3C5EBB4DC23908B1E45C9DEBF5AC1</t>
+  </si>
+  <si>
+    <t>Sarah Bishop</t>
+  </si>
+  <si>
+    <t>Talent Acquisition Specialist</t>
+  </si>
+  <si>
+    <t>SBishop@myaccessone.com</t>
   </si>
 </sst>
 </file>
@@ -186,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,6 +372,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -450,10 +603,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +653,22 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,23 +696,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -995,14 +1153,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4453F-9E19-4359-8E42-4A2B19B10749}">
   <dimension ref="A1:N503"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="29" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
@@ -1016,30 +1174,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="15"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="29"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -1071,108 +1229,126 @@
       <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="39">
-        <v>44243</v>
+      <c r="B3" s="26">
+        <v>44608</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="27">
+        <v>44631</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="27">
+        <v>44643</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="27">
+        <v>44644</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="13">
-        <f>B3+Datasheet!$B$1</f>
-        <v>44244</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13">
-        <f>B3+Datasheet!$B$2</f>
-        <v>44246</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13">
-        <f>B3+Datasheet!$B$3</f>
-        <v>44249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="12">
-        <f>B4+Datasheet!$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12">
-        <f>B4+Datasheet!$B$2</f>
-        <v>3</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
-        <f>B4+Datasheet!$B$3</f>
-        <v>6</v>
-      </c>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="12">
-        <f>B5+Datasheet!$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12">
-        <f>B5+Datasheet!$B$2</f>
-        <v>3</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12">
-        <f>B5+Datasheet!$B$3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="12">
-        <f>B6+Datasheet!$B$1</f>
-        <v>1</v>
+      <c r="H6" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="12">
-        <f>B6+Datasheet!$B$2</f>
-        <v>3</v>
+      <c r="J6" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="12">
-        <f>B6+Datasheet!$B$3</f>
-        <v>6</v>
-      </c>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6"/>
-      <c r="B7" s="41"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1195,7 +1371,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6"/>
-      <c r="B8" s="41"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1218,7 +1394,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6"/>
-      <c r="B9" s="41"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1241,7 +1417,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6"/>
-      <c r="B10" s="41"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1264,7 +1440,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6"/>
-      <c r="B11" s="41"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1287,7 +1463,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6"/>
-      <c r="B12" s="41"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1310,7 +1486,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1333,7 +1509,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1356,7 +1532,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6"/>
-      <c r="B15" s="41"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1379,7 +1555,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6"/>
-      <c r="B16" s="41"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1402,7 +1578,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6"/>
-      <c r="B17" s="41"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1425,7 +1601,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="6"/>
-      <c r="B18" s="41"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1448,7 +1624,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6"/>
-      <c r="B19" s="41"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1471,7 +1647,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="6"/>
-      <c r="B20" s="41"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1494,7 +1670,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="6"/>
-      <c r="B21" s="41"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1517,7 +1693,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="6"/>
-      <c r="B22" s="41"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1540,7 +1716,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="6"/>
-      <c r="B23" s="41"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1563,7 +1739,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="6"/>
-      <c r="B24" s="41"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1586,7 +1762,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="6"/>
-      <c r="B25" s="41"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1609,7 +1785,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="6"/>
-      <c r="B26" s="41"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1632,7 +1808,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="6"/>
-      <c r="B27" s="41"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1655,7 +1831,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6"/>
-      <c r="B28" s="41"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1678,7 +1854,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="6"/>
-      <c r="B29" s="41"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1701,7 +1877,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6"/>
-      <c r="B30" s="41"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1724,7 +1900,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="6"/>
-      <c r="B31" s="41"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1747,7 +1923,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="6"/>
-      <c r="B32" s="41"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1770,7 +1946,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="6"/>
-      <c r="B33" s="41"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1793,7 +1969,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="6"/>
-      <c r="B34" s="41"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1816,7 +1992,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="6"/>
-      <c r="B35" s="41"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1839,7 +2015,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="6"/>
-      <c r="B36" s="41"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1862,7 +2038,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="6"/>
-      <c r="B37" s="41"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1885,7 +2061,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="6"/>
-      <c r="B38" s="41"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1908,7 +2084,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="6"/>
-      <c r="B39" s="41"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1931,7 +2107,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="6"/>
-      <c r="B40" s="41"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1954,7 +2130,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="6"/>
-      <c r="B41" s="41"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1977,7 +2153,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="6"/>
-      <c r="B42" s="41"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2000,7 +2176,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="6"/>
-      <c r="B43" s="41"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2023,7 +2199,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="6"/>
-      <c r="B44" s="41"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2046,7 +2222,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="6"/>
-      <c r="B45" s="41"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2069,7 +2245,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="6"/>
-      <c r="B46" s="41"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -2092,7 +2268,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="6"/>
-      <c r="B47" s="41"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2115,7 +2291,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="6"/>
-      <c r="B48" s="41"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -2138,7 +2314,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="6"/>
-      <c r="B49" s="41"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -2161,7 +2337,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="6"/>
-      <c r="B50" s="41"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -2184,7 +2360,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="6"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -2207,7 +2383,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="6"/>
-      <c r="B52" s="41"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -2230,7 +2406,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="6"/>
-      <c r="B53" s="41"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2253,7 +2429,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="6"/>
-      <c r="B54" s="41"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2276,7 +2452,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="6"/>
-      <c r="B55" s="41"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2299,7 +2475,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="6"/>
-      <c r="B56" s="41"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -2322,7 +2498,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="6"/>
-      <c r="B57" s="41"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2345,7 +2521,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="6"/>
-      <c r="B58" s="41"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -2368,7 +2544,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="6"/>
-      <c r="B59" s="41"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -2391,7 +2567,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="6"/>
-      <c r="B60" s="41"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -2414,7 +2590,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="6"/>
-      <c r="B61" s="41"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -2437,7 +2613,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="6"/>
-      <c r="B62" s="41"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -2460,7 +2636,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="6"/>
-      <c r="B63" s="41"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2483,7 +2659,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="6"/>
-      <c r="B64" s="41"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -2506,7 +2682,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="6"/>
-      <c r="B65" s="41"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -2529,7 +2705,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="6"/>
-      <c r="B66" s="41"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -2552,7 +2728,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="6"/>
-      <c r="B67" s="41"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -2575,7 +2751,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="6"/>
-      <c r="B68" s="41"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2598,7 +2774,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="6"/>
-      <c r="B69" s="41"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -2621,7 +2797,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="6"/>
-      <c r="B70" s="41"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -2644,7 +2820,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="6"/>
-      <c r="B71" s="41"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -2667,7 +2843,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="6"/>
-      <c r="B72" s="41"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -2690,7 +2866,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="6"/>
-      <c r="B73" s="41"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -2713,7 +2889,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="6"/>
-      <c r="B74" s="41"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -2736,7 +2912,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="6"/>
-      <c r="B75" s="41"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -2759,7 +2935,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="6"/>
-      <c r="B76" s="41"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -2782,7 +2958,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="6"/>
-      <c r="B77" s="41"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -2805,7 +2981,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="6"/>
-      <c r="B78" s="41"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -2828,7 +3004,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="6"/>
-      <c r="B79" s="41"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -2851,7 +3027,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="6"/>
-      <c r="B80" s="41"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -2874,7 +3050,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="6"/>
-      <c r="B81" s="41"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -2897,7 +3073,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="6"/>
-      <c r="B82" s="41"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -2920,7 +3096,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="6"/>
-      <c r="B83" s="41"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -2943,7 +3119,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="6"/>
-      <c r="B84" s="41"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -2966,7 +3142,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="6"/>
-      <c r="B85" s="41"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -2989,7 +3165,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="6"/>
-      <c r="B86" s="41"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -3012,7 +3188,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="6"/>
-      <c r="B87" s="41"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -3035,7 +3211,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="6"/>
-      <c r="B88" s="41"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -3058,7 +3234,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="6"/>
-      <c r="B89" s="41"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -3081,7 +3257,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="6"/>
-      <c r="B90" s="41"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -3104,7 +3280,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="6"/>
-      <c r="B91" s="41"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -3127,7 +3303,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="6"/>
-      <c r="B92" s="41"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -3150,7 +3326,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="6"/>
-      <c r="B93" s="41"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -3173,7 +3349,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="6"/>
-      <c r="B94" s="41"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -3196,7 +3372,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="6"/>
-      <c r="B95" s="41"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -3219,7 +3395,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="6"/>
-      <c r="B96" s="41"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -3242,7 +3418,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="6"/>
-      <c r="B97" s="41"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -3265,7 +3441,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="6"/>
-      <c r="B98" s="41"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -3288,7 +3464,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="6"/>
-      <c r="B99" s="41"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -3311,7 +3487,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="6"/>
-      <c r="B100" s="41"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -3334,7 +3510,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="6"/>
-      <c r="B101" s="41"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -3357,7 +3533,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="6"/>
-      <c r="B102" s="41"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -3380,7 +3556,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="6"/>
-      <c r="B103" s="41"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -3403,7 +3579,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="6"/>
-      <c r="B104" s="41"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -3426,7 +3602,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="6"/>
-      <c r="B105" s="41"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -3449,7 +3625,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="6"/>
-      <c r="B106" s="41"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -3472,7 +3648,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="6"/>
-      <c r="B107" s="41"/>
+      <c r="B107" s="28"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -3495,7 +3671,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="6"/>
-      <c r="B108" s="41"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -3518,7 +3694,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="6"/>
-      <c r="B109" s="41"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -3541,7 +3717,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="6"/>
-      <c r="B110" s="41"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -3564,7 +3740,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="6"/>
-      <c r="B111" s="41"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -3587,7 +3763,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="6"/>
-      <c r="B112" s="41"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -3610,7 +3786,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="6"/>
-      <c r="B113" s="41"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
@@ -3633,7 +3809,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="6"/>
-      <c r="B114" s="41"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -3656,7 +3832,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="6"/>
-      <c r="B115" s="41"/>
+      <c r="B115" s="28"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -3679,7 +3855,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="6"/>
-      <c r="B116" s="41"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -3702,7 +3878,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="6"/>
-      <c r="B117" s="41"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
@@ -3725,7 +3901,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="6"/>
-      <c r="B118" s="41"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -3748,7 +3924,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="6"/>
-      <c r="B119" s="41"/>
+      <c r="B119" s="28"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -3771,7 +3947,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="6"/>
-      <c r="B120" s="41"/>
+      <c r="B120" s="28"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -3794,7 +3970,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="6"/>
-      <c r="B121" s="41"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -3817,7 +3993,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="6"/>
-      <c r="B122" s="41"/>
+      <c r="B122" s="28"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
@@ -3840,7 +4016,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="6"/>
-      <c r="B123" s="41"/>
+      <c r="B123" s="28"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
@@ -3863,7 +4039,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="6"/>
-      <c r="B124" s="41"/>
+      <c r="B124" s="28"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -3886,7 +4062,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="6"/>
-      <c r="B125" s="41"/>
+      <c r="B125" s="28"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
@@ -3909,7 +4085,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="6"/>
-      <c r="B126" s="41"/>
+      <c r="B126" s="28"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -3932,7 +4108,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="6"/>
-      <c r="B127" s="41"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -3955,7 +4131,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="6"/>
-      <c r="B128" s="41"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
@@ -3978,7 +4154,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="6"/>
-      <c r="B129" s="41"/>
+      <c r="B129" s="28"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -4001,7 +4177,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="6"/>
-      <c r="B130" s="41"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -4024,7 +4200,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="6"/>
-      <c r="B131" s="41"/>
+      <c r="B131" s="28"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
@@ -4047,7 +4223,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="6"/>
-      <c r="B132" s="41"/>
+      <c r="B132" s="28"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
@@ -4070,7 +4246,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="6"/>
-      <c r="B133" s="41"/>
+      <c r="B133" s="28"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
@@ -4093,7 +4269,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="6"/>
-      <c r="B134" s="41"/>
+      <c r="B134" s="28"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
@@ -4116,7 +4292,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="6"/>
-      <c r="B135" s="41"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
@@ -4139,7 +4315,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="6"/>
-      <c r="B136" s="41"/>
+      <c r="B136" s="28"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
@@ -4162,7 +4338,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="6"/>
-      <c r="B137" s="41"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
@@ -4185,7 +4361,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="6"/>
-      <c r="B138" s="41"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
@@ -4208,7 +4384,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="6"/>
-      <c r="B139" s="41"/>
+      <c r="B139" s="28"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
@@ -4231,7 +4407,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="6"/>
-      <c r="B140" s="41"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
@@ -4254,7 +4430,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="6"/>
-      <c r="B141" s="41"/>
+      <c r="B141" s="28"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
@@ -4277,7 +4453,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="6"/>
-      <c r="B142" s="41"/>
+      <c r="B142" s="28"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
@@ -4300,7 +4476,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="6"/>
-      <c r="B143" s="41"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
@@ -4323,7 +4499,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="6"/>
-      <c r="B144" s="41"/>
+      <c r="B144" s="28"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
@@ -4346,7 +4522,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="6"/>
-      <c r="B145" s="41"/>
+      <c r="B145" s="28"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
@@ -4369,7 +4545,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="6"/>
-      <c r="B146" s="41"/>
+      <c r="B146" s="28"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
@@ -4392,7 +4568,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="6"/>
-      <c r="B147" s="41"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
@@ -4415,7 +4591,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="6"/>
-      <c r="B148" s="41"/>
+      <c r="B148" s="28"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -4438,7 +4614,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="6"/>
-      <c r="B149" s="41"/>
+      <c r="B149" s="28"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
@@ -4461,7 +4637,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="6"/>
-      <c r="B150" s="41"/>
+      <c r="B150" s="28"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
@@ -4484,7 +4660,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="6"/>
-      <c r="B151" s="41"/>
+      <c r="B151" s="28"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
@@ -4507,7 +4683,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="6"/>
-      <c r="B152" s="41"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
@@ -4530,7 +4706,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="6"/>
-      <c r="B153" s="41"/>
+      <c r="B153" s="28"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
@@ -4553,7 +4729,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="6"/>
-      <c r="B154" s="41"/>
+      <c r="B154" s="28"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
@@ -4576,7 +4752,7 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="6"/>
-      <c r="B155" s="41"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
@@ -4599,7 +4775,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="6"/>
-      <c r="B156" s="41"/>
+      <c r="B156" s="28"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
@@ -4622,7 +4798,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="6"/>
-      <c r="B157" s="41"/>
+      <c r="B157" s="28"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
@@ -4645,7 +4821,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="6"/>
-      <c r="B158" s="41"/>
+      <c r="B158" s="28"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
@@ -4668,7 +4844,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="6"/>
-      <c r="B159" s="41"/>
+      <c r="B159" s="28"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
@@ -4691,7 +4867,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="6"/>
-      <c r="B160" s="41"/>
+      <c r="B160" s="28"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
@@ -4714,7 +4890,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="6"/>
-      <c r="B161" s="41"/>
+      <c r="B161" s="28"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
@@ -4737,7 +4913,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="6"/>
-      <c r="B162" s="41"/>
+      <c r="B162" s="28"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
@@ -4760,7 +4936,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="6"/>
-      <c r="B163" s="41"/>
+      <c r="B163" s="28"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
@@ -4783,7 +4959,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="6"/>
-      <c r="B164" s="41"/>
+      <c r="B164" s="28"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
@@ -4806,7 +4982,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="6"/>
-      <c r="B165" s="41"/>
+      <c r="B165" s="28"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
@@ -4829,7 +5005,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="6"/>
-      <c r="B166" s="41"/>
+      <c r="B166" s="28"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
@@ -4852,7 +5028,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="6"/>
-      <c r="B167" s="41"/>
+      <c r="B167" s="28"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
@@ -4875,7 +5051,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="6"/>
-      <c r="B168" s="41"/>
+      <c r="B168" s="28"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
@@ -4898,7 +5074,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="6"/>
-      <c r="B169" s="41"/>
+      <c r="B169" s="28"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
@@ -4921,7 +5097,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="6"/>
-      <c r="B170" s="41"/>
+      <c r="B170" s="28"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
@@ -4944,7 +5120,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="6"/>
-      <c r="B171" s="41"/>
+      <c r="B171" s="28"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
@@ -4967,7 +5143,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="6"/>
-      <c r="B172" s="41"/>
+      <c r="B172" s="28"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
@@ -4990,7 +5166,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="6"/>
-      <c r="B173" s="41"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
@@ -5013,7 +5189,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="6"/>
-      <c r="B174" s="41"/>
+      <c r="B174" s="28"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
@@ -5036,7 +5212,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="6"/>
-      <c r="B175" s="41"/>
+      <c r="B175" s="28"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
@@ -5059,7 +5235,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="6"/>
-      <c r="B176" s="41"/>
+      <c r="B176" s="28"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
@@ -5082,7 +5258,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="6"/>
-      <c r="B177" s="41"/>
+      <c r="B177" s="28"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
@@ -5105,7 +5281,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="6"/>
-      <c r="B178" s="41"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
@@ -5128,7 +5304,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="6"/>
-      <c r="B179" s="41"/>
+      <c r="B179" s="28"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -5151,7 +5327,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="6"/>
-      <c r="B180" s="41"/>
+      <c r="B180" s="28"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
@@ -5174,7 +5350,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="6"/>
-      <c r="B181" s="41"/>
+      <c r="B181" s="28"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
@@ -5197,7 +5373,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="6"/>
-      <c r="B182" s="41"/>
+      <c r="B182" s="28"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
@@ -5220,7 +5396,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="6"/>
-      <c r="B183" s="41"/>
+      <c r="B183" s="28"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
@@ -5243,7 +5419,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="6"/>
-      <c r="B184" s="41"/>
+      <c r="B184" s="28"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -5266,7 +5442,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="6"/>
-      <c r="B185" s="41"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
@@ -5289,7 +5465,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="6"/>
-      <c r="B186" s="41"/>
+      <c r="B186" s="28"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
@@ -5312,7 +5488,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="6"/>
-      <c r="B187" s="41"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
@@ -5335,7 +5511,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="6"/>
-      <c r="B188" s="41"/>
+      <c r="B188" s="28"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
@@ -5358,7 +5534,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="6"/>
-      <c r="B189" s="41"/>
+      <c r="B189" s="28"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
@@ -5381,7 +5557,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="6"/>
-      <c r="B190" s="41"/>
+      <c r="B190" s="28"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
@@ -5404,7 +5580,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="6"/>
-      <c r="B191" s="41"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
@@ -5427,7 +5603,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="6"/>
-      <c r="B192" s="41"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
@@ -5450,7 +5626,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="6"/>
-      <c r="B193" s="41"/>
+      <c r="B193" s="28"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
@@ -5473,7 +5649,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="6"/>
-      <c r="B194" s="41"/>
+      <c r="B194" s="28"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
@@ -5496,7 +5672,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="6"/>
-      <c r="B195" s="41"/>
+      <c r="B195" s="28"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
@@ -5519,7 +5695,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="6"/>
-      <c r="B196" s="41"/>
+      <c r="B196" s="28"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
@@ -5542,7 +5718,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="6"/>
-      <c r="B197" s="41"/>
+      <c r="B197" s="28"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
@@ -5565,7 +5741,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="6"/>
-      <c r="B198" s="41"/>
+      <c r="B198" s="28"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
@@ -5588,7 +5764,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="6"/>
-      <c r="B199" s="41"/>
+      <c r="B199" s="28"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
@@ -5611,7 +5787,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="6"/>
-      <c r="B200" s="41"/>
+      <c r="B200" s="28"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
@@ -5634,7 +5810,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="6"/>
-      <c r="B201" s="41"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
@@ -5657,7 +5833,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="6"/>
-      <c r="B202" s="41"/>
+      <c r="B202" s="28"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
@@ -5680,7 +5856,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="6"/>
-      <c r="B203" s="41"/>
+      <c r="B203" s="28"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
@@ -5703,7 +5879,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="6"/>
-      <c r="B204" s="41"/>
+      <c r="B204" s="28"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -5726,7 +5902,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="6"/>
-      <c r="B205" s="41"/>
+      <c r="B205" s="28"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
@@ -5749,7 +5925,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="6"/>
-      <c r="B206" s="41"/>
+      <c r="B206" s="28"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
@@ -5772,7 +5948,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="6"/>
-      <c r="B207" s="41"/>
+      <c r="B207" s="28"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
@@ -5795,7 +5971,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="6"/>
-      <c r="B208" s="41"/>
+      <c r="B208" s="28"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
@@ -5818,7 +5994,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="6"/>
-      <c r="B209" s="41"/>
+      <c r="B209" s="28"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
@@ -5841,7 +6017,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="6"/>
-      <c r="B210" s="41"/>
+      <c r="B210" s="28"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
@@ -5864,7 +6040,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="6"/>
-      <c r="B211" s="41"/>
+      <c r="B211" s="28"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
@@ -5887,7 +6063,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="6"/>
-      <c r="B212" s="41"/>
+      <c r="B212" s="28"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
@@ -5910,7 +6086,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="6"/>
-      <c r="B213" s="41"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
@@ -5933,7 +6109,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="6"/>
-      <c r="B214" s="41"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
@@ -5956,7 +6132,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="6"/>
-      <c r="B215" s="41"/>
+      <c r="B215" s="28"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
@@ -5979,7 +6155,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="6"/>
-      <c r="B216" s="41"/>
+      <c r="B216" s="28"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
@@ -6002,7 +6178,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="6"/>
-      <c r="B217" s="41"/>
+      <c r="B217" s="28"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
@@ -6025,7 +6201,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="6"/>
-      <c r="B218" s="41"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
@@ -6048,7 +6224,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="6"/>
-      <c r="B219" s="41"/>
+      <c r="B219" s="28"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
@@ -6071,7 +6247,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="6"/>
-      <c r="B220" s="41"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
@@ -6094,7 +6270,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="6"/>
-      <c r="B221" s="41"/>
+      <c r="B221" s="28"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
@@ -6117,7 +6293,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="6"/>
-      <c r="B222" s="41"/>
+      <c r="B222" s="28"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
@@ -6140,7 +6316,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="6"/>
-      <c r="B223" s="41"/>
+      <c r="B223" s="28"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
@@ -6163,7 +6339,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="6"/>
-      <c r="B224" s="41"/>
+      <c r="B224" s="28"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
@@ -6186,7 +6362,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="6"/>
-      <c r="B225" s="41"/>
+      <c r="B225" s="28"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
@@ -6209,7 +6385,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="6"/>
-      <c r="B226" s="41"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
@@ -6232,7 +6408,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="6"/>
-      <c r="B227" s="41"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
@@ -6255,7 +6431,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="6"/>
-      <c r="B228" s="41"/>
+      <c r="B228" s="28"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
@@ -6278,7 +6454,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="6"/>
-      <c r="B229" s="41"/>
+      <c r="B229" s="28"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
@@ -6301,7 +6477,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="6"/>
-      <c r="B230" s="41"/>
+      <c r="B230" s="28"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
@@ -6324,7 +6500,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="6"/>
-      <c r="B231" s="41"/>
+      <c r="B231" s="28"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
@@ -6347,7 +6523,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="6"/>
-      <c r="B232" s="41"/>
+      <c r="B232" s="28"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
@@ -6370,7 +6546,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="6"/>
-      <c r="B233" s="41"/>
+      <c r="B233" s="28"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
@@ -6393,7 +6569,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="6"/>
-      <c r="B234" s="41"/>
+      <c r="B234" s="28"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
@@ -6416,7 +6592,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="6"/>
-      <c r="B235" s="41"/>
+      <c r="B235" s="28"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
@@ -6439,7 +6615,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="6"/>
-      <c r="B236" s="41"/>
+      <c r="B236" s="28"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
@@ -6462,7 +6638,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" s="6"/>
-      <c r="B237" s="41"/>
+      <c r="B237" s="28"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
@@ -6485,7 +6661,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" s="6"/>
-      <c r="B238" s="41"/>
+      <c r="B238" s="28"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
@@ -6508,7 +6684,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" s="6"/>
-      <c r="B239" s="41"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -6531,7 +6707,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" s="6"/>
-      <c r="B240" s="41"/>
+      <c r="B240" s="28"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
@@ -6554,7 +6730,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="6"/>
-      <c r="B241" s="41"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
@@ -6577,7 +6753,7 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="6"/>
-      <c r="B242" s="41"/>
+      <c r="B242" s="28"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
@@ -6600,7 +6776,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="6"/>
-      <c r="B243" s="41"/>
+      <c r="B243" s="28"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
@@ -6623,7 +6799,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="6"/>
-      <c r="B244" s="41"/>
+      <c r="B244" s="28"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
@@ -6646,7 +6822,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" s="6"/>
-      <c r="B245" s="41"/>
+      <c r="B245" s="28"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
@@ -6669,7 +6845,7 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" s="6"/>
-      <c r="B246" s="41"/>
+      <c r="B246" s="28"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
@@ -6692,7 +6868,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" s="6"/>
-      <c r="B247" s="41"/>
+      <c r="B247" s="28"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
@@ -6715,7 +6891,7 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="6"/>
-      <c r="B248" s="41"/>
+      <c r="B248" s="28"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
@@ -6738,7 +6914,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" s="6"/>
-      <c r="B249" s="41"/>
+      <c r="B249" s="28"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
@@ -6761,7 +6937,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" s="6"/>
-      <c r="B250" s="41"/>
+      <c r="B250" s="28"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
@@ -6784,7 +6960,7 @@
     </row>
     <row r="251" spans="1:12">
       <c r="A251" s="6"/>
-      <c r="B251" s="41"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
@@ -6807,7 +6983,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="6"/>
-      <c r="B252" s="41"/>
+      <c r="B252" s="28"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
@@ -6830,7 +7006,7 @@
     </row>
     <row r="253" spans="1:12">
       <c r="A253" s="6"/>
-      <c r="B253" s="41"/>
+      <c r="B253" s="28"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
@@ -6853,7 +7029,7 @@
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="6"/>
-      <c r="B254" s="41"/>
+      <c r="B254" s="28"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
@@ -6876,7 +7052,7 @@
     </row>
     <row r="255" spans="1:12">
       <c r="A255" s="6"/>
-      <c r="B255" s="41"/>
+      <c r="B255" s="28"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
@@ -6899,7 +7075,7 @@
     </row>
     <row r="256" spans="1:12">
       <c r="A256" s="6"/>
-      <c r="B256" s="41"/>
+      <c r="B256" s="28"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
@@ -6922,7 +7098,7 @@
     </row>
     <row r="257" spans="1:12">
       <c r="A257" s="6"/>
-      <c r="B257" s="41"/>
+      <c r="B257" s="28"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -6945,7 +7121,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="6"/>
-      <c r="B258" s="41"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -6968,7 +7144,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="6"/>
-      <c r="B259" s="41"/>
+      <c r="B259" s="28"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -6991,7 +7167,7 @@
     </row>
     <row r="260" spans="1:12">
       <c r="A260" s="6"/>
-      <c r="B260" s="41"/>
+      <c r="B260" s="28"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -7014,7 +7190,7 @@
     </row>
     <row r="261" spans="1:12">
       <c r="A261" s="6"/>
-      <c r="B261" s="41"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -7037,7 +7213,7 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="6"/>
-      <c r="B262" s="41"/>
+      <c r="B262" s="28"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -7060,7 +7236,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="6"/>
-      <c r="B263" s="41"/>
+      <c r="B263" s="28"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -7083,7 +7259,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="6"/>
-      <c r="B264" s="41"/>
+      <c r="B264" s="28"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -7106,7 +7282,7 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="6"/>
-      <c r="B265" s="41"/>
+      <c r="B265" s="28"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
@@ -7129,7 +7305,7 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="6"/>
-      <c r="B266" s="41"/>
+      <c r="B266" s="28"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
@@ -7152,7 +7328,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="6"/>
-      <c r="B267" s="41"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
@@ -7175,7 +7351,7 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="6"/>
-      <c r="B268" s="41"/>
+      <c r="B268" s="28"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
@@ -7198,7 +7374,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="6"/>
-      <c r="B269" s="41"/>
+      <c r="B269" s="28"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
@@ -7221,7 +7397,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="6"/>
-      <c r="B270" s="41"/>
+      <c r="B270" s="28"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
@@ -7244,7 +7420,7 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="6"/>
-      <c r="B271" s="41"/>
+      <c r="B271" s="28"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
@@ -7267,7 +7443,7 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="6"/>
-      <c r="B272" s="41"/>
+      <c r="B272" s="28"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
@@ -7290,7 +7466,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="6"/>
-      <c r="B273" s="41"/>
+      <c r="B273" s="28"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
@@ -7313,7 +7489,7 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="6"/>
-      <c r="B274" s="41"/>
+      <c r="B274" s="28"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
@@ -7336,7 +7512,7 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="6"/>
-      <c r="B275" s="41"/>
+      <c r="B275" s="28"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
@@ -7359,7 +7535,7 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="6"/>
-      <c r="B276" s="41"/>
+      <c r="B276" s="28"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
@@ -7382,7 +7558,7 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="6"/>
-      <c r="B277" s="41"/>
+      <c r="B277" s="28"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
@@ -7405,7 +7581,7 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="6"/>
-      <c r="B278" s="41"/>
+      <c r="B278" s="28"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -7428,7 +7604,7 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" s="6"/>
-      <c r="B279" s="41"/>
+      <c r="B279" s="28"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
@@ -7451,7 +7627,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="6"/>
-      <c r="B280" s="41"/>
+      <c r="B280" s="28"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
@@ -7474,7 +7650,7 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="6"/>
-      <c r="B281" s="41"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
@@ -7497,7 +7673,7 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="6"/>
-      <c r="B282" s="41"/>
+      <c r="B282" s="28"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
@@ -7520,7 +7696,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="6"/>
-      <c r="B283" s="41"/>
+      <c r="B283" s="28"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
@@ -7543,7 +7719,7 @@
     </row>
     <row r="284" spans="1:12">
       <c r="A284" s="6"/>
-      <c r="B284" s="41"/>
+      <c r="B284" s="28"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
@@ -7566,7 +7742,7 @@
     </row>
     <row r="285" spans="1:12">
       <c r="A285" s="6"/>
-      <c r="B285" s="41"/>
+      <c r="B285" s="28"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
@@ -7589,7 +7765,7 @@
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="6"/>
-      <c r="B286" s="41"/>
+      <c r="B286" s="28"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
@@ -7612,7 +7788,7 @@
     </row>
     <row r="287" spans="1:12">
       <c r="A287" s="6"/>
-      <c r="B287" s="41"/>
+      <c r="B287" s="28"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
@@ -7635,7 +7811,7 @@
     </row>
     <row r="288" spans="1:12">
       <c r="A288" s="6"/>
-      <c r="B288" s="41"/>
+      <c r="B288" s="28"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
@@ -7658,7 +7834,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="6"/>
-      <c r="B289" s="41"/>
+      <c r="B289" s="28"/>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
@@ -7681,7 +7857,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="6"/>
-      <c r="B290" s="41"/>
+      <c r="B290" s="28"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
@@ -7704,7 +7880,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="6"/>
-      <c r="B291" s="41"/>
+      <c r="B291" s="28"/>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
@@ -7727,7 +7903,7 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" s="6"/>
-      <c r="B292" s="41"/>
+      <c r="B292" s="28"/>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
@@ -7750,7 +7926,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" s="6"/>
-      <c r="B293" s="41"/>
+      <c r="B293" s="28"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
@@ -7773,7 +7949,7 @@
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="6"/>
-      <c r="B294" s="41"/>
+      <c r="B294" s="28"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
@@ -7796,7 +7972,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="6"/>
-      <c r="B295" s="41"/>
+      <c r="B295" s="28"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
@@ -7819,7 +7995,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="6"/>
-      <c r="B296" s="41"/>
+      <c r="B296" s="28"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
@@ -7842,7 +8018,7 @@
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="6"/>
-      <c r="B297" s="41"/>
+      <c r="B297" s="28"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
@@ -7865,7 +8041,7 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" s="6"/>
-      <c r="B298" s="41"/>
+      <c r="B298" s="28"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
@@ -7888,7 +8064,7 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" s="6"/>
-      <c r="B299" s="41"/>
+      <c r="B299" s="28"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
@@ -7911,7 +8087,7 @@
     </row>
     <row r="300" spans="1:12">
       <c r="A300" s="6"/>
-      <c r="B300" s="41"/>
+      <c r="B300" s="28"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
@@ -7934,7 +8110,7 @@
     </row>
     <row r="301" spans="1:12">
       <c r="A301" s="6"/>
-      <c r="B301" s="41"/>
+      <c r="B301" s="28"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
@@ -7957,7 +8133,7 @@
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="6"/>
-      <c r="B302" s="41"/>
+      <c r="B302" s="28"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
@@ -7980,7 +8156,7 @@
     </row>
     <row r="303" spans="1:12">
       <c r="A303" s="6"/>
-      <c r="B303" s="41"/>
+      <c r="B303" s="28"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
@@ -8003,7 +8179,7 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="6"/>
-      <c r="B304" s="41"/>
+      <c r="B304" s="28"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
@@ -8026,7 +8202,7 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" s="6"/>
-      <c r="B305" s="41"/>
+      <c r="B305" s="28"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
@@ -8049,7 +8225,7 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="6"/>
-      <c r="B306" s="41"/>
+      <c r="B306" s="28"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
@@ -8072,7 +8248,7 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="6"/>
-      <c r="B307" s="41"/>
+      <c r="B307" s="28"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
@@ -8095,7 +8271,7 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="6"/>
-      <c r="B308" s="41"/>
+      <c r="B308" s="28"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
@@ -8118,7 +8294,7 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="6"/>
-      <c r="B309" s="41"/>
+      <c r="B309" s="28"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
@@ -8141,7 +8317,7 @@
     </row>
     <row r="310" spans="1:12">
       <c r="A310" s="6"/>
-      <c r="B310" s="41"/>
+      <c r="B310" s="28"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
@@ -8164,7 +8340,7 @@
     </row>
     <row r="311" spans="1:12">
       <c r="A311" s="6"/>
-      <c r="B311" s="41"/>
+      <c r="B311" s="28"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
@@ -8187,7 +8363,7 @@
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="6"/>
-      <c r="B312" s="41"/>
+      <c r="B312" s="28"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
@@ -8210,7 +8386,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="6"/>
-      <c r="B313" s="41"/>
+      <c r="B313" s="28"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
@@ -8233,7 +8409,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="6"/>
-      <c r="B314" s="41"/>
+      <c r="B314" s="28"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
@@ -8256,7 +8432,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="6"/>
-      <c r="B315" s="41"/>
+      <c r="B315" s="28"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
@@ -8279,7 +8455,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="6"/>
-      <c r="B316" s="41"/>
+      <c r="B316" s="28"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
@@ -8302,7 +8478,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="6"/>
-      <c r="B317" s="41"/>
+      <c r="B317" s="28"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
@@ -8325,7 +8501,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="6"/>
-      <c r="B318" s="41"/>
+      <c r="B318" s="28"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
@@ -8348,7 +8524,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="6"/>
-      <c r="B319" s="41"/>
+      <c r="B319" s="28"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
@@ -8371,7 +8547,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="6"/>
-      <c r="B320" s="41"/>
+      <c r="B320" s="28"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
@@ -8394,7 +8570,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="6"/>
-      <c r="B321" s="41"/>
+      <c r="B321" s="28"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
@@ -8417,7 +8593,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="6"/>
-      <c r="B322" s="41"/>
+      <c r="B322" s="28"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
@@ -8440,7 +8616,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="6"/>
-      <c r="B323" s="41"/>
+      <c r="B323" s="28"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
@@ -8463,7 +8639,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="6"/>
-      <c r="B324" s="41"/>
+      <c r="B324" s="28"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
@@ -8486,7 +8662,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="6"/>
-      <c r="B325" s="41"/>
+      <c r="B325" s="28"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
@@ -8509,7 +8685,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="6"/>
-      <c r="B326" s="41"/>
+      <c r="B326" s="28"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
@@ -8532,7 +8708,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="6"/>
-      <c r="B327" s="41"/>
+      <c r="B327" s="28"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
@@ -8555,7 +8731,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="6"/>
-      <c r="B328" s="41"/>
+      <c r="B328" s="28"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
@@ -8578,7 +8754,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="6"/>
-      <c r="B329" s="41"/>
+      <c r="B329" s="28"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
@@ -8601,7 +8777,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="6"/>
-      <c r="B330" s="41"/>
+      <c r="B330" s="28"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
@@ -8624,7 +8800,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="6"/>
-      <c r="B331" s="41"/>
+      <c r="B331" s="28"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
@@ -8647,7 +8823,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="6"/>
-      <c r="B332" s="41"/>
+      <c r="B332" s="28"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
@@ -8670,7 +8846,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="6"/>
-      <c r="B333" s="41"/>
+      <c r="B333" s="28"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
@@ -8693,7 +8869,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="6"/>
-      <c r="B334" s="41"/>
+      <c r="B334" s="28"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
@@ -8716,7 +8892,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="6"/>
-      <c r="B335" s="41"/>
+      <c r="B335" s="28"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -8739,7 +8915,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="6"/>
-      <c r="B336" s="41"/>
+      <c r="B336" s="28"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
@@ -8762,7 +8938,7 @@
     </row>
     <row r="337" spans="1:12">
       <c r="A337" s="6"/>
-      <c r="B337" s="41"/>
+      <c r="B337" s="28"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
@@ -8785,7 +8961,7 @@
     </row>
     <row r="338" spans="1:12">
       <c r="A338" s="6"/>
-      <c r="B338" s="41"/>
+      <c r="B338" s="28"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
@@ -8808,7 +8984,7 @@
     </row>
     <row r="339" spans="1:12">
       <c r="A339" s="6"/>
-      <c r="B339" s="41"/>
+      <c r="B339" s="28"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
@@ -8831,7 +9007,7 @@
     </row>
     <row r="340" spans="1:12">
       <c r="A340" s="6"/>
-      <c r="B340" s="41"/>
+      <c r="B340" s="28"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
@@ -8854,7 +9030,7 @@
     </row>
     <row r="341" spans="1:12">
       <c r="A341" s="6"/>
-      <c r="B341" s="41"/>
+      <c r="B341" s="28"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
@@ -8877,7 +9053,7 @@
     </row>
     <row r="342" spans="1:12">
       <c r="A342" s="6"/>
-      <c r="B342" s="41"/>
+      <c r="B342" s="28"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
@@ -8900,7 +9076,7 @@
     </row>
     <row r="343" spans="1:12">
       <c r="A343" s="6"/>
-      <c r="B343" s="41"/>
+      <c r="B343" s="28"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
@@ -8923,7 +9099,7 @@
     </row>
     <row r="344" spans="1:12">
       <c r="A344" s="6"/>
-      <c r="B344" s="41"/>
+      <c r="B344" s="28"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
@@ -8946,7 +9122,7 @@
     </row>
     <row r="345" spans="1:12">
       <c r="A345" s="6"/>
-      <c r="B345" s="41"/>
+      <c r="B345" s="28"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
@@ -8969,7 +9145,7 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="6"/>
-      <c r="B346" s="41"/>
+      <c r="B346" s="28"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
@@ -8992,7 +9168,7 @@
     </row>
     <row r="347" spans="1:12">
       <c r="A347" s="6"/>
-      <c r="B347" s="41"/>
+      <c r="B347" s="28"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
@@ -9015,7 +9191,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="A348" s="6"/>
-      <c r="B348" s="41"/>
+      <c r="B348" s="28"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
@@ -9038,7 +9214,7 @@
     </row>
     <row r="349" spans="1:12">
       <c r="A349" s="6"/>
-      <c r="B349" s="41"/>
+      <c r="B349" s="28"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
@@ -9061,7 +9237,7 @@
     </row>
     <row r="350" spans="1:12">
       <c r="A350" s="6"/>
-      <c r="B350" s="41"/>
+      <c r="B350" s="28"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
@@ -9084,7 +9260,7 @@
     </row>
     <row r="351" spans="1:12">
       <c r="A351" s="6"/>
-      <c r="B351" s="41"/>
+      <c r="B351" s="28"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
@@ -9107,7 +9283,7 @@
     </row>
     <row r="352" spans="1:12">
       <c r="A352" s="6"/>
-      <c r="B352" s="41"/>
+      <c r="B352" s="28"/>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
@@ -9130,7 +9306,7 @@
     </row>
     <row r="353" spans="1:12">
       <c r="A353" s="6"/>
-      <c r="B353" s="41"/>
+      <c r="B353" s="28"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
@@ -9153,7 +9329,7 @@
     </row>
     <row r="354" spans="1:12">
       <c r="A354" s="6"/>
-      <c r="B354" s="41"/>
+      <c r="B354" s="28"/>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
@@ -9176,7 +9352,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" s="6"/>
-      <c r="B355" s="41"/>
+      <c r="B355" s="28"/>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
@@ -9199,7 +9375,7 @@
     </row>
     <row r="356" spans="1:12">
       <c r="A356" s="6"/>
-      <c r="B356" s="41"/>
+      <c r="B356" s="28"/>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
@@ -9222,7 +9398,7 @@
     </row>
     <row r="357" spans="1:12">
       <c r="A357" s="6"/>
-      <c r="B357" s="41"/>
+      <c r="B357" s="28"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
@@ -9245,7 +9421,7 @@
     </row>
     <row r="358" spans="1:12">
       <c r="A358" s="6"/>
-      <c r="B358" s="41"/>
+      <c r="B358" s="28"/>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
@@ -9268,7 +9444,7 @@
     </row>
     <row r="359" spans="1:12">
       <c r="A359" s="6"/>
-      <c r="B359" s="41"/>
+      <c r="B359" s="28"/>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
@@ -9291,7 +9467,7 @@
     </row>
     <row r="360" spans="1:12">
       <c r="A360" s="6"/>
-      <c r="B360" s="41"/>
+      <c r="B360" s="28"/>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
@@ -9314,7 +9490,7 @@
     </row>
     <row r="361" spans="1:12">
       <c r="A361" s="6"/>
-      <c r="B361" s="41"/>
+      <c r="B361" s="28"/>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
@@ -9337,7 +9513,7 @@
     </row>
     <row r="362" spans="1:12">
       <c r="A362" s="6"/>
-      <c r="B362" s="41"/>
+      <c r="B362" s="28"/>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
@@ -9360,7 +9536,7 @@
     </row>
     <row r="363" spans="1:12">
       <c r="A363" s="6"/>
-      <c r="B363" s="41"/>
+      <c r="B363" s="28"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
@@ -9383,7 +9559,7 @@
     </row>
     <row r="364" spans="1:12">
       <c r="A364" s="6"/>
-      <c r="B364" s="41"/>
+      <c r="B364" s="28"/>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
@@ -9406,7 +9582,7 @@
     </row>
     <row r="365" spans="1:12">
       <c r="A365" s="6"/>
-      <c r="B365" s="41"/>
+      <c r="B365" s="28"/>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
@@ -9429,7 +9605,7 @@
     </row>
     <row r="366" spans="1:12">
       <c r="A366" s="6"/>
-      <c r="B366" s="41"/>
+      <c r="B366" s="28"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
@@ -9452,7 +9628,7 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367" s="6"/>
-      <c r="B367" s="41"/>
+      <c r="B367" s="28"/>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
@@ -9475,7 +9651,7 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368" s="6"/>
-      <c r="B368" s="41"/>
+      <c r="B368" s="28"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
@@ -9498,7 +9674,7 @@
     </row>
     <row r="369" spans="1:12">
       <c r="A369" s="6"/>
-      <c r="B369" s="41"/>
+      <c r="B369" s="28"/>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
@@ -9521,7 +9697,7 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370" s="6"/>
-      <c r="B370" s="41"/>
+      <c r="B370" s="28"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
@@ -9544,7 +9720,7 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371" s="6"/>
-      <c r="B371" s="41"/>
+      <c r="B371" s="28"/>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
@@ -9567,7 +9743,7 @@
     </row>
     <row r="372" spans="1:12">
       <c r="A372" s="6"/>
-      <c r="B372" s="41"/>
+      <c r="B372" s="28"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
@@ -9590,7 +9766,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="A373" s="6"/>
-      <c r="B373" s="41"/>
+      <c r="B373" s="28"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
@@ -9613,7 +9789,7 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374" s="6"/>
-      <c r="B374" s="41"/>
+      <c r="B374" s="28"/>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
@@ -9636,7 +9812,7 @@
     </row>
     <row r="375" spans="1:12">
       <c r="A375" s="6"/>
-      <c r="B375" s="41"/>
+      <c r="B375" s="28"/>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
@@ -9659,7 +9835,7 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" s="6"/>
-      <c r="B376" s="41"/>
+      <c r="B376" s="28"/>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
@@ -9682,7 +9858,7 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377" s="6"/>
-      <c r="B377" s="41"/>
+      <c r="B377" s="28"/>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
@@ -9705,7 +9881,7 @@
     </row>
     <row r="378" spans="1:12">
       <c r="A378" s="6"/>
-      <c r="B378" s="41"/>
+      <c r="B378" s="28"/>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
@@ -9728,7 +9904,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="A379" s="6"/>
-      <c r="B379" s="41"/>
+      <c r="B379" s="28"/>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
@@ -9751,7 +9927,7 @@
     </row>
     <row r="380" spans="1:12">
       <c r="A380" s="6"/>
-      <c r="B380" s="41"/>
+      <c r="B380" s="28"/>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
@@ -9774,7 +9950,7 @@
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="6"/>
-      <c r="B381" s="41"/>
+      <c r="B381" s="28"/>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
@@ -9797,7 +9973,7 @@
     </row>
     <row r="382" spans="1:12">
       <c r="A382" s="6"/>
-      <c r="B382" s="41"/>
+      <c r="B382" s="28"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
@@ -9820,7 +9996,7 @@
     </row>
     <row r="383" spans="1:12">
       <c r="A383" s="6"/>
-      <c r="B383" s="41"/>
+      <c r="B383" s="28"/>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
@@ -9843,7 +10019,7 @@
     </row>
     <row r="384" spans="1:12">
       <c r="A384" s="6"/>
-      <c r="B384" s="41"/>
+      <c r="B384" s="28"/>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
@@ -9866,7 +10042,7 @@
     </row>
     <row r="385" spans="1:12">
       <c r="A385" s="6"/>
-      <c r="B385" s="41"/>
+      <c r="B385" s="28"/>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
@@ -9889,7 +10065,7 @@
     </row>
     <row r="386" spans="1:12">
       <c r="A386" s="6"/>
-      <c r="B386" s="41"/>
+      <c r="B386" s="28"/>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
@@ -9912,7 +10088,7 @@
     </row>
     <row r="387" spans="1:12">
       <c r="A387" s="6"/>
-      <c r="B387" s="41"/>
+      <c r="B387" s="28"/>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
@@ -9935,7 +10111,7 @@
     </row>
     <row r="388" spans="1:12">
       <c r="A388" s="6"/>
-      <c r="B388" s="41"/>
+      <c r="B388" s="28"/>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
@@ -9958,7 +10134,7 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="6"/>
-      <c r="B389" s="41"/>
+      <c r="B389" s="28"/>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
@@ -9981,7 +10157,7 @@
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="6"/>
-      <c r="B390" s="41"/>
+      <c r="B390" s="28"/>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
@@ -10004,7 +10180,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="6"/>
-      <c r="B391" s="41"/>
+      <c r="B391" s="28"/>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
@@ -10027,7 +10203,7 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392" s="6"/>
-      <c r="B392" s="41"/>
+      <c r="B392" s="28"/>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
@@ -10050,7 +10226,7 @@
     </row>
     <row r="393" spans="1:12">
       <c r="A393" s="6"/>
-      <c r="B393" s="41"/>
+      <c r="B393" s="28"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
@@ -10073,7 +10249,7 @@
     </row>
     <row r="394" spans="1:12">
       <c r="A394" s="6"/>
-      <c r="B394" s="41"/>
+      <c r="B394" s="28"/>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
@@ -10096,7 +10272,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="A395" s="6"/>
-      <c r="B395" s="41"/>
+      <c r="B395" s="28"/>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
@@ -10119,7 +10295,7 @@
     </row>
     <row r="396" spans="1:12">
       <c r="A396" s="6"/>
-      <c r="B396" s="41"/>
+      <c r="B396" s="28"/>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
@@ -10142,7 +10318,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" s="6"/>
-      <c r="B397" s="41"/>
+      <c r="B397" s="28"/>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
@@ -10165,7 +10341,7 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="6"/>
-      <c r="B398" s="41"/>
+      <c r="B398" s="28"/>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
@@ -10188,7 +10364,7 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="6"/>
-      <c r="B399" s="41"/>
+      <c r="B399" s="28"/>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
@@ -10211,7 +10387,7 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="6"/>
-      <c r="B400" s="41"/>
+      <c r="B400" s="28"/>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
@@ -10234,7 +10410,7 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401" s="6"/>
-      <c r="B401" s="41"/>
+      <c r="B401" s="28"/>
       <c r="C401" s="6"/>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
@@ -10257,7 +10433,7 @@
     </row>
     <row r="402" spans="1:12">
       <c r="A402" s="6"/>
-      <c r="B402" s="41"/>
+      <c r="B402" s="28"/>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
@@ -10280,7 +10456,7 @@
     </row>
     <row r="403" spans="1:12">
       <c r="A403" s="6"/>
-      <c r="B403" s="41"/>
+      <c r="B403" s="28"/>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
@@ -10303,7 +10479,7 @@
     </row>
     <row r="404" spans="1:12">
       <c r="A404" s="6"/>
-      <c r="B404" s="41"/>
+      <c r="B404" s="28"/>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
@@ -10326,7 +10502,7 @@
     </row>
     <row r="405" spans="1:12">
       <c r="A405" s="6"/>
-      <c r="B405" s="41"/>
+      <c r="B405" s="28"/>
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
@@ -10349,7 +10525,7 @@
     </row>
     <row r="406" spans="1:12">
       <c r="A406" s="6"/>
-      <c r="B406" s="41"/>
+      <c r="B406" s="28"/>
       <c r="C406" s="6"/>
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
@@ -10372,7 +10548,7 @@
     </row>
     <row r="407" spans="1:12">
       <c r="A407" s="6"/>
-      <c r="B407" s="41"/>
+      <c r="B407" s="28"/>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
@@ -10395,7 +10571,7 @@
     </row>
     <row r="408" spans="1:12">
       <c r="A408" s="6"/>
-      <c r="B408" s="41"/>
+      <c r="B408" s="28"/>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
@@ -10418,7 +10594,7 @@
     </row>
     <row r="409" spans="1:12">
       <c r="A409" s="6"/>
-      <c r="B409" s="41"/>
+      <c r="B409" s="28"/>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
@@ -10441,7 +10617,7 @@
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="6"/>
-      <c r="B410" s="41"/>
+      <c r="B410" s="28"/>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
@@ -10464,7 +10640,7 @@
     </row>
     <row r="411" spans="1:12">
       <c r="A411" s="6"/>
-      <c r="B411" s="41"/>
+      <c r="B411" s="28"/>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
@@ -10487,7 +10663,7 @@
     </row>
     <row r="412" spans="1:12">
       <c r="A412" s="6"/>
-      <c r="B412" s="41"/>
+      <c r="B412" s="28"/>
       <c r="C412" s="6"/>
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
@@ -10510,7 +10686,7 @@
     </row>
     <row r="413" spans="1:12">
       <c r="A413" s="6"/>
-      <c r="B413" s="41"/>
+      <c r="B413" s="28"/>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
@@ -10533,7 +10709,7 @@
     </row>
     <row r="414" spans="1:12">
       <c r="A414" s="6"/>
-      <c r="B414" s="41"/>
+      <c r="B414" s="28"/>
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
@@ -10556,7 +10732,7 @@
     </row>
     <row r="415" spans="1:12">
       <c r="A415" s="6"/>
-      <c r="B415" s="41"/>
+      <c r="B415" s="28"/>
       <c r="C415" s="6"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
@@ -10579,7 +10755,7 @@
     </row>
     <row r="416" spans="1:12">
       <c r="A416" s="6"/>
-      <c r="B416" s="41"/>
+      <c r="B416" s="28"/>
       <c r="C416" s="6"/>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
@@ -10602,7 +10778,7 @@
     </row>
     <row r="417" spans="1:12">
       <c r="A417" s="6"/>
-      <c r="B417" s="41"/>
+      <c r="B417" s="28"/>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
@@ -10625,7 +10801,7 @@
     </row>
     <row r="418" spans="1:12">
       <c r="A418" s="6"/>
-      <c r="B418" s="41"/>
+      <c r="B418" s="28"/>
       <c r="C418" s="6"/>
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
@@ -10648,7 +10824,7 @@
     </row>
     <row r="419" spans="1:12">
       <c r="A419" s="6"/>
-      <c r="B419" s="41"/>
+      <c r="B419" s="28"/>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
@@ -10671,7 +10847,7 @@
     </row>
     <row r="420" spans="1:12">
       <c r="A420" s="6"/>
-      <c r="B420" s="41"/>
+      <c r="B420" s="28"/>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
@@ -10694,7 +10870,7 @@
     </row>
     <row r="421" spans="1:12">
       <c r="A421" s="6"/>
-      <c r="B421" s="41"/>
+      <c r="B421" s="28"/>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
@@ -10717,7 +10893,7 @@
     </row>
     <row r="422" spans="1:12">
       <c r="A422" s="6"/>
-      <c r="B422" s="41"/>
+      <c r="B422" s="28"/>
       <c r="C422" s="6"/>
       <c r="D422" s="6"/>
       <c r="E422" s="6"/>
@@ -10740,7 +10916,7 @@
     </row>
     <row r="423" spans="1:12">
       <c r="A423" s="6"/>
-      <c r="B423" s="41"/>
+      <c r="B423" s="28"/>
       <c r="C423" s="6"/>
       <c r="D423" s="6"/>
       <c r="E423" s="6"/>
@@ -10763,7 +10939,7 @@
     </row>
     <row r="424" spans="1:12">
       <c r="A424" s="6"/>
-      <c r="B424" s="41"/>
+      <c r="B424" s="28"/>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
       <c r="E424" s="6"/>
@@ -10786,7 +10962,7 @@
     </row>
     <row r="425" spans="1:12">
       <c r="A425" s="6"/>
-      <c r="B425" s="41"/>
+      <c r="B425" s="28"/>
       <c r="C425" s="6"/>
       <c r="D425" s="6"/>
       <c r="E425" s="6"/>
@@ -10809,7 +10985,7 @@
     </row>
     <row r="426" spans="1:12">
       <c r="A426" s="6"/>
-      <c r="B426" s="41"/>
+      <c r="B426" s="28"/>
       <c r="C426" s="6"/>
       <c r="D426" s="6"/>
       <c r="E426" s="6"/>
@@ -10832,7 +11008,7 @@
     </row>
     <row r="427" spans="1:12">
       <c r="A427" s="6"/>
-      <c r="B427" s="41"/>
+      <c r="B427" s="28"/>
       <c r="C427" s="6"/>
       <c r="D427" s="6"/>
       <c r="E427" s="6"/>
@@ -10855,7 +11031,7 @@
     </row>
     <row r="428" spans="1:12">
       <c r="A428" s="6"/>
-      <c r="B428" s="41"/>
+      <c r="B428" s="28"/>
       <c r="C428" s="6"/>
       <c r="D428" s="6"/>
       <c r="E428" s="6"/>
@@ -10878,7 +11054,7 @@
     </row>
     <row r="429" spans="1:12">
       <c r="A429" s="6"/>
-      <c r="B429" s="41"/>
+      <c r="B429" s="28"/>
       <c r="C429" s="6"/>
       <c r="D429" s="6"/>
       <c r="E429" s="6"/>
@@ -10901,7 +11077,7 @@
     </row>
     <row r="430" spans="1:12">
       <c r="A430" s="6"/>
-      <c r="B430" s="41"/>
+      <c r="B430" s="28"/>
       <c r="C430" s="6"/>
       <c r="D430" s="6"/>
       <c r="E430" s="6"/>
@@ -10924,7 +11100,7 @@
     </row>
     <row r="431" spans="1:12">
       <c r="A431" s="6"/>
-      <c r="B431" s="41"/>
+      <c r="B431" s="28"/>
       <c r="C431" s="6"/>
       <c r="D431" s="6"/>
       <c r="E431" s="6"/>
@@ -10947,7 +11123,7 @@
     </row>
     <row r="432" spans="1:12">
       <c r="A432" s="6"/>
-      <c r="B432" s="41"/>
+      <c r="B432" s="28"/>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
@@ -10970,7 +11146,7 @@
     </row>
     <row r="433" spans="1:12">
       <c r="A433" s="6"/>
-      <c r="B433" s="41"/>
+      <c r="B433" s="28"/>
       <c r="C433" s="6"/>
       <c r="D433" s="6"/>
       <c r="E433" s="6"/>
@@ -10993,7 +11169,7 @@
     </row>
     <row r="434" spans="1:12">
       <c r="A434" s="6"/>
-      <c r="B434" s="41"/>
+      <c r="B434" s="28"/>
       <c r="C434" s="6"/>
       <c r="D434" s="6"/>
       <c r="E434" s="6"/>
@@ -11016,7 +11192,7 @@
     </row>
     <row r="435" spans="1:12">
       <c r="A435" s="6"/>
-      <c r="B435" s="41"/>
+      <c r="B435" s="28"/>
       <c r="C435" s="6"/>
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
@@ -11039,7 +11215,7 @@
     </row>
     <row r="436" spans="1:12">
       <c r="A436" s="6"/>
-      <c r="B436" s="41"/>
+      <c r="B436" s="28"/>
       <c r="C436" s="6"/>
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
@@ -11062,7 +11238,7 @@
     </row>
     <row r="437" spans="1:12">
       <c r="A437" s="6"/>
-      <c r="B437" s="41"/>
+      <c r="B437" s="28"/>
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
       <c r="E437" s="6"/>
@@ -11085,7 +11261,7 @@
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="6"/>
-      <c r="B438" s="41"/>
+      <c r="B438" s="28"/>
       <c r="C438" s="6"/>
       <c r="D438" s="6"/>
       <c r="E438" s="6"/>
@@ -11108,7 +11284,7 @@
     </row>
     <row r="439" spans="1:12">
       <c r="A439" s="6"/>
-      <c r="B439" s="41"/>
+      <c r="B439" s="28"/>
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
       <c r="E439" s="6"/>
@@ -11131,7 +11307,7 @@
     </row>
     <row r="440" spans="1:12">
       <c r="A440" s="6"/>
-      <c r="B440" s="41"/>
+      <c r="B440" s="28"/>
       <c r="C440" s="6"/>
       <c r="D440" s="6"/>
       <c r="E440" s="6"/>
@@ -11154,7 +11330,7 @@
     </row>
     <row r="441" spans="1:12">
       <c r="A441" s="6"/>
-      <c r="B441" s="41"/>
+      <c r="B441" s="28"/>
       <c r="C441" s="6"/>
       <c r="D441" s="6"/>
       <c r="E441" s="6"/>
@@ -11177,7 +11353,7 @@
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="6"/>
-      <c r="B442" s="41"/>
+      <c r="B442" s="28"/>
       <c r="C442" s="6"/>
       <c r="D442" s="6"/>
       <c r="E442" s="6"/>
@@ -11200,7 +11376,7 @@
     </row>
     <row r="443" spans="1:12">
       <c r="A443" s="6"/>
-      <c r="B443" s="41"/>
+      <c r="B443" s="28"/>
       <c r="C443" s="6"/>
       <c r="D443" s="6"/>
       <c r="E443" s="6"/>
@@ -11223,7 +11399,7 @@
     </row>
     <row r="444" spans="1:12">
       <c r="A444" s="6"/>
-      <c r="B444" s="41"/>
+      <c r="B444" s="28"/>
       <c r="C444" s="6"/>
       <c r="D444" s="6"/>
       <c r="E444" s="6"/>
@@ -11246,7 +11422,7 @@
     </row>
     <row r="445" spans="1:12">
       <c r="A445" s="6"/>
-      <c r="B445" s="41"/>
+      <c r="B445" s="28"/>
       <c r="C445" s="6"/>
       <c r="D445" s="6"/>
       <c r="E445" s="6"/>
@@ -11269,7 +11445,7 @@
     </row>
     <row r="446" spans="1:12">
       <c r="A446" s="6"/>
-      <c r="B446" s="41"/>
+      <c r="B446" s="28"/>
       <c r="C446" s="6"/>
       <c r="D446" s="6"/>
       <c r="E446" s="6"/>
@@ -11292,7 +11468,7 @@
     </row>
     <row r="447" spans="1:12">
       <c r="A447" s="6"/>
-      <c r="B447" s="41"/>
+      <c r="B447" s="28"/>
       <c r="C447" s="6"/>
       <c r="D447" s="6"/>
       <c r="E447" s="6"/>
@@ -11315,7 +11491,7 @@
     </row>
     <row r="448" spans="1:12">
       <c r="A448" s="6"/>
-      <c r="B448" s="41"/>
+      <c r="B448" s="28"/>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
@@ -11338,7 +11514,7 @@
     </row>
     <row r="449" spans="1:12">
       <c r="A449" s="6"/>
-      <c r="B449" s="41"/>
+      <c r="B449" s="28"/>
       <c r="C449" s="6"/>
       <c r="D449" s="6"/>
       <c r="E449" s="6"/>
@@ -11361,7 +11537,7 @@
     </row>
     <row r="450" spans="1:12">
       <c r="A450" s="6"/>
-      <c r="B450" s="41"/>
+      <c r="B450" s="28"/>
       <c r="C450" s="6"/>
       <c r="D450" s="6"/>
       <c r="E450" s="6"/>
@@ -11384,7 +11560,7 @@
     </row>
     <row r="451" spans="1:12">
       <c r="A451" s="6"/>
-      <c r="B451" s="41"/>
+      <c r="B451" s="28"/>
       <c r="C451" s="6"/>
       <c r="D451" s="6"/>
       <c r="E451" s="6"/>
@@ -11407,7 +11583,7 @@
     </row>
     <row r="452" spans="1:12">
       <c r="A452" s="6"/>
-      <c r="B452" s="41"/>
+      <c r="B452" s="28"/>
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
       <c r="E452" s="6"/>
@@ -11430,7 +11606,7 @@
     </row>
     <row r="453" spans="1:12">
       <c r="A453" s="6"/>
-      <c r="B453" s="41"/>
+      <c r="B453" s="28"/>
       <c r="C453" s="6"/>
       <c r="D453" s="6"/>
       <c r="E453" s="6"/>
@@ -11453,7 +11629,7 @@
     </row>
     <row r="454" spans="1:12">
       <c r="A454" s="6"/>
-      <c r="B454" s="41"/>
+      <c r="B454" s="28"/>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
       <c r="E454" s="6"/>
@@ -11476,7 +11652,7 @@
     </row>
     <row r="455" spans="1:12">
       <c r="A455" s="6"/>
-      <c r="B455" s="41"/>
+      <c r="B455" s="28"/>
       <c r="C455" s="6"/>
       <c r="D455" s="6"/>
       <c r="E455" s="6"/>
@@ -11499,7 +11675,7 @@
     </row>
     <row r="456" spans="1:12">
       <c r="A456" s="6"/>
-      <c r="B456" s="41"/>
+      <c r="B456" s="28"/>
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
@@ -11522,7 +11698,7 @@
     </row>
     <row r="457" spans="1:12">
       <c r="A457" s="6"/>
-      <c r="B457" s="41"/>
+      <c r="B457" s="28"/>
       <c r="C457" s="6"/>
       <c r="D457" s="6"/>
       <c r="E457" s="6"/>
@@ -11545,7 +11721,7 @@
     </row>
     <row r="458" spans="1:12">
       <c r="A458" s="6"/>
-      <c r="B458" s="41"/>
+      <c r="B458" s="28"/>
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
@@ -11568,7 +11744,7 @@
     </row>
     <row r="459" spans="1:12">
       <c r="A459" s="6"/>
-      <c r="B459" s="41"/>
+      <c r="B459" s="28"/>
       <c r="C459" s="6"/>
       <c r="D459" s="6"/>
       <c r="E459" s="6"/>
@@ -11591,7 +11767,7 @@
     </row>
     <row r="460" spans="1:12">
       <c r="A460" s="6"/>
-      <c r="B460" s="41"/>
+      <c r="B460" s="28"/>
       <c r="C460" s="6"/>
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
@@ -11614,7 +11790,7 @@
     </row>
     <row r="461" spans="1:12">
       <c r="A461" s="6"/>
-      <c r="B461" s="41"/>
+      <c r="B461" s="28"/>
       <c r="C461" s="6"/>
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
@@ -11637,7 +11813,7 @@
     </row>
     <row r="462" spans="1:12">
       <c r="A462" s="6"/>
-      <c r="B462" s="41"/>
+      <c r="B462" s="28"/>
       <c r="C462" s="6"/>
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
@@ -11660,7 +11836,7 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" s="6"/>
-      <c r="B463" s="41"/>
+      <c r="B463" s="28"/>
       <c r="C463" s="6"/>
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
@@ -11683,7 +11859,7 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" s="6"/>
-      <c r="B464" s="41"/>
+      <c r="B464" s="28"/>
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
@@ -11706,7 +11882,7 @@
     </row>
     <row r="465" spans="1:12">
       <c r="A465" s="6"/>
-      <c r="B465" s="41"/>
+      <c r="B465" s="28"/>
       <c r="C465" s="6"/>
       <c r="D465" s="6"/>
       <c r="E465" s="6"/>
@@ -11729,7 +11905,7 @@
     </row>
     <row r="466" spans="1:12">
       <c r="A466" s="6"/>
-      <c r="B466" s="41"/>
+      <c r="B466" s="28"/>
       <c r="C466" s="6"/>
       <c r="D466" s="6"/>
       <c r="E466" s="6"/>
@@ -11752,7 +11928,7 @@
     </row>
     <row r="467" spans="1:12">
       <c r="A467" s="6"/>
-      <c r="B467" s="41"/>
+      <c r="B467" s="28"/>
       <c r="C467" s="6"/>
       <c r="D467" s="6"/>
       <c r="E467" s="6"/>
@@ -11775,7 +11951,7 @@
     </row>
     <row r="468" spans="1:12">
       <c r="A468" s="6"/>
-      <c r="B468" s="41"/>
+      <c r="B468" s="28"/>
       <c r="C468" s="6"/>
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
@@ -11798,7 +11974,7 @@
     </row>
     <row r="469" spans="1:12">
       <c r="A469" s="6"/>
-      <c r="B469" s="41"/>
+      <c r="B469" s="28"/>
       <c r="C469" s="6"/>
       <c r="D469" s="6"/>
       <c r="E469" s="6"/>
@@ -11821,7 +11997,7 @@
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="6"/>
-      <c r="B470" s="41"/>
+      <c r="B470" s="28"/>
       <c r="C470" s="6"/>
       <c r="D470" s="6"/>
       <c r="E470" s="6"/>
@@ -11844,7 +12020,7 @@
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="6"/>
-      <c r="B471" s="41"/>
+      <c r="B471" s="28"/>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
       <c r="E471" s="6"/>
@@ -11867,7 +12043,7 @@
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="6"/>
-      <c r="B472" s="41"/>
+      <c r="B472" s="28"/>
       <c r="C472" s="6"/>
       <c r="D472" s="6"/>
       <c r="E472" s="6"/>
@@ -11890,7 +12066,7 @@
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="6"/>
-      <c r="B473" s="41"/>
+      <c r="B473" s="28"/>
       <c r="C473" s="6"/>
       <c r="D473" s="6"/>
       <c r="E473" s="6"/>
@@ -11913,7 +12089,7 @@
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="6"/>
-      <c r="B474" s="41"/>
+      <c r="B474" s="28"/>
       <c r="C474" s="6"/>
       <c r="D474" s="6"/>
       <c r="E474" s="6"/>
@@ -11936,7 +12112,7 @@
     </row>
     <row r="475" spans="1:12">
       <c r="A475" s="6"/>
-      <c r="B475" s="41"/>
+      <c r="B475" s="28"/>
       <c r="C475" s="6"/>
       <c r="D475" s="6"/>
       <c r="E475" s="6"/>
@@ -11959,7 +12135,7 @@
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="6"/>
-      <c r="B476" s="41"/>
+      <c r="B476" s="28"/>
       <c r="C476" s="6"/>
       <c r="D476" s="6"/>
       <c r="E476" s="6"/>
@@ -11982,7 +12158,7 @@
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="6"/>
-      <c r="B477" s="41"/>
+      <c r="B477" s="28"/>
       <c r="C477" s="6"/>
       <c r="D477" s="6"/>
       <c r="E477" s="6"/>
@@ -12005,7 +12181,7 @@
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="6"/>
-      <c r="B478" s="41"/>
+      <c r="B478" s="28"/>
       <c r="C478" s="6"/>
       <c r="D478" s="6"/>
       <c r="E478" s="6"/>
@@ -12028,7 +12204,7 @@
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="6"/>
-      <c r="B479" s="41"/>
+      <c r="B479" s="28"/>
       <c r="C479" s="6"/>
       <c r="D479" s="6"/>
       <c r="E479" s="6"/>
@@ -12051,7 +12227,7 @@
     </row>
     <row r="480" spans="1:12">
       <c r="A480" s="6"/>
-      <c r="B480" s="41"/>
+      <c r="B480" s="28"/>
       <c r="C480" s="6"/>
       <c r="D480" s="6"/>
       <c r="E480" s="6"/>
@@ -12074,7 +12250,7 @@
     </row>
     <row r="481" spans="1:12">
       <c r="A481" s="6"/>
-      <c r="B481" s="41"/>
+      <c r="B481" s="28"/>
       <c r="C481" s="6"/>
       <c r="D481" s="6"/>
       <c r="E481" s="6"/>
@@ -12097,7 +12273,7 @@
     </row>
     <row r="482" spans="1:12">
       <c r="A482" s="6"/>
-      <c r="B482" s="41"/>
+      <c r="B482" s="28"/>
       <c r="C482" s="6"/>
       <c r="D482" s="6"/>
       <c r="E482" s="6"/>
@@ -12120,7 +12296,7 @@
     </row>
     <row r="483" spans="1:12">
       <c r="A483" s="6"/>
-      <c r="B483" s="41"/>
+      <c r="B483" s="28"/>
       <c r="C483" s="6"/>
       <c r="D483" s="6"/>
       <c r="E483" s="6"/>
@@ -12143,7 +12319,7 @@
     </row>
     <row r="484" spans="1:12">
       <c r="A484" s="6"/>
-      <c r="B484" s="41"/>
+      <c r="B484" s="28"/>
       <c r="C484" s="6"/>
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
@@ -12166,7 +12342,7 @@
     </row>
     <row r="485" spans="1:12">
       <c r="A485" s="6"/>
-      <c r="B485" s="41"/>
+      <c r="B485" s="28"/>
       <c r="C485" s="6"/>
       <c r="D485" s="6"/>
       <c r="E485" s="6"/>
@@ -12189,7 +12365,7 @@
     </row>
     <row r="486" spans="1:12">
       <c r="A486" s="6"/>
-      <c r="B486" s="41"/>
+      <c r="B486" s="28"/>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
       <c r="E486" s="6"/>
@@ -12212,7 +12388,7 @@
     </row>
     <row r="487" spans="1:12">
       <c r="A487" s="6"/>
-      <c r="B487" s="41"/>
+      <c r="B487" s="28"/>
       <c r="C487" s="6"/>
       <c r="D487" s="6"/>
       <c r="E487" s="6"/>
@@ -12235,7 +12411,7 @@
     </row>
     <row r="488" spans="1:12">
       <c r="A488" s="6"/>
-      <c r="B488" s="41"/>
+      <c r="B488" s="28"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6"/>
       <c r="E488" s="6"/>
@@ -12258,7 +12434,7 @@
     </row>
     <row r="489" spans="1:12">
       <c r="A489" s="6"/>
-      <c r="B489" s="41"/>
+      <c r="B489" s="28"/>
       <c r="C489" s="6"/>
       <c r="D489" s="6"/>
       <c r="E489" s="6"/>
@@ -12281,7 +12457,7 @@
     </row>
     <row r="490" spans="1:12">
       <c r="A490" s="6"/>
-      <c r="B490" s="41"/>
+      <c r="B490" s="28"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6"/>
       <c r="E490" s="6"/>
@@ -12304,7 +12480,7 @@
     </row>
     <row r="491" spans="1:12">
       <c r="A491" s="6"/>
-      <c r="B491" s="41"/>
+      <c r="B491" s="28"/>
       <c r="C491" s="6"/>
       <c r="D491" s="6"/>
       <c r="E491" s="6"/>
@@ -12327,7 +12503,7 @@
     </row>
     <row r="492" spans="1:12">
       <c r="A492" s="6"/>
-      <c r="B492" s="41"/>
+      <c r="B492" s="28"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6"/>
       <c r="E492" s="6"/>
@@ -12350,7 +12526,7 @@
     </row>
     <row r="493" spans="1:12">
       <c r="A493" s="6"/>
-      <c r="B493" s="41"/>
+      <c r="B493" s="28"/>
       <c r="C493" s="6"/>
       <c r="D493" s="6"/>
       <c r="E493" s="6"/>
@@ -12373,7 +12549,7 @@
     </row>
     <row r="494" spans="1:12">
       <c r="A494" s="6"/>
-      <c r="B494" s="41"/>
+      <c r="B494" s="28"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6"/>
       <c r="E494" s="6"/>
@@ -12396,7 +12572,7 @@
     </row>
     <row r="495" spans="1:12">
       <c r="A495" s="6"/>
-      <c r="B495" s="41"/>
+      <c r="B495" s="28"/>
       <c r="C495" s="6"/>
       <c r="D495" s="6"/>
       <c r="E495" s="6"/>
@@ -12419,7 +12595,7 @@
     </row>
     <row r="496" spans="1:12">
       <c r="A496" s="6"/>
-      <c r="B496" s="41"/>
+      <c r="B496" s="28"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6"/>
       <c r="E496" s="6"/>
@@ -12442,7 +12618,7 @@
     </row>
     <row r="497" spans="1:12">
       <c r="A497" s="6"/>
-      <c r="B497" s="41"/>
+      <c r="B497" s="28"/>
       <c r="C497" s="6"/>
       <c r="D497" s="6"/>
       <c r="E497" s="6"/>
@@ -12465,7 +12641,7 @@
     </row>
     <row r="498" spans="1:12">
       <c r="A498" s="6"/>
-      <c r="B498" s="41"/>
+      <c r="B498" s="28"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
       <c r="E498" s="6"/>
@@ -12488,7 +12664,7 @@
     </row>
     <row r="499" spans="1:12">
       <c r="A499" s="6"/>
-      <c r="B499" s="41"/>
+      <c r="B499" s="28"/>
       <c r="C499" s="6"/>
       <c r="D499" s="6"/>
       <c r="E499" s="6"/>
@@ -12511,7 +12687,7 @@
     </row>
     <row r="500" spans="1:12">
       <c r="A500" s="6"/>
-      <c r="B500" s="41"/>
+      <c r="B500" s="28"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6"/>
       <c r="E500" s="6"/>
@@ -12534,7 +12710,7 @@
     </row>
     <row r="501" spans="1:12">
       <c r="A501" s="6"/>
-      <c r="B501" s="41"/>
+      <c r="B501" s="28"/>
       <c r="C501" s="6"/>
       <c r="D501" s="6"/>
       <c r="E501" s="6"/>
@@ -12557,7 +12733,7 @@
     </row>
     <row r="502" spans="1:12">
       <c r="A502" s="6"/>
-      <c r="B502" s="41"/>
+      <c r="B502" s="28"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6"/>
       <c r="E502" s="6"/>
@@ -12580,7 +12756,7 @@
     </row>
     <row r="503" spans="1:12">
       <c r="A503" s="6"/>
-      <c r="B503" s="41"/>
+      <c r="B503" s="28"/>
       <c r="C503" s="6"/>
       <c r="D503" s="6"/>
       <c r="E503" s="6"/>
@@ -12635,7 +12811,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H3:H6">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND($G3="Yes", MOD(ROW(),2)=1)</formula>
     </cfRule>
@@ -12662,7 +12838,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K503 I3:I503 G4:G503 G3" xr:uid="{028F76C1-8A83-4961-A1A6-D360B5CCA1B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K503 I3:I503 G3:G503" xr:uid="{028F76C1-8A83-4961-A1A6-D360B5CCA1B0}">
       <formula1>"Yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12676,43 +12852,55 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12768,6 +12956,273 @@
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A8" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A9" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="10">
+        <v>44704</v>
       </c>
     </row>
   </sheetData>
@@ -12776,7 +13231,16 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:P1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{54E16EB1-FBA1-4B6C-9174-6CB21AB2BA5D}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{5D0B8326-F1CD-4165-A6BD-5E50BB780B66}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{7526304E-14F5-4A58-95FE-86B37EE65DBC}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{0A54D1EC-6040-4A93-9078-00DBE8769B1C}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{EA17E7F9-74A2-4C31-B156-BC1BCE71F014}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{5C268451-3139-42C9-9F71-8633FAA23CB0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -12791,606 +13255,606 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VM0KTZlz+Ed6fX2Vn12A21nqgRkzEQpOsvfqblrerqJ0BIgY5PKpX9yedf1iimOZH9xMwVGfbRN+W5KAnogWBA==" saltValue="PBPEaoClKr1RWon+fS3zpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
